--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1306,12 +1306,16 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
     <t>Result of output</t>
   </si>
   <si>
@@ -1319,6 +1323,16 @@
   </si>
   <si>
     <t>Task outputs can take any form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueReference</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1633,7 +1647,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.40625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1656,7 +1670,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.68359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -7840,13 +7854,11 @@
         <v>75</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>75</v>
@@ -7916,17 +7928,17 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>75</v>
@@ -7963,16 +7975,14 @@
         <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>417</v>
@@ -7999,6 +8009,119 @@
         <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1306,7 +1306,199 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
+    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
+  </si>
+  <si>
+    <t>Task.output.type.id</t>
+  </si>
+  <si>
+    <t>Task.output.type.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.id</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Task.output.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Task.output.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -1637,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1646,7 +1838,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.8515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.40625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1673,7 +1865,7 @@
     <col min="25" max="25" width="68.68359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1684,7 +1876,7 @@
     <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7854,11 +8046,13 @@
         <v>75</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>75</v>
@@ -7913,7 +8107,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>83</v>
@@ -7928,18 +8122,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7975,20 +8167,22 @@
         <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -7997,13 +8191,13 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8014,20 +8208,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8039,18 +8231,18 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>418</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8086,42 +8278,1267 @@
         <v>75</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AJ59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1372,6 +1372,9 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-lab-task-output</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -8697,7 +8700,7 @@
         <v>75</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>75</v>
@@ -8736,7 +8739,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8754,18 +8757,18 @@
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8791,13 +8794,13 @@
         <v>231</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8847,7 +8850,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8865,18 +8868,18 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8902,14 +8905,14 @@
         <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>75</v>
@@ -8938,7 +8941,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>75</v>
@@ -8956,7 +8959,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8974,18 +8977,18 @@
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9011,14 +9014,14 @@
         <v>231</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -9067,7 +9070,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9085,18 +9088,18 @@
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9119,19 +9122,19 @@
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>75</v>
@@ -9180,7 +9183,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9198,18 +9201,18 @@
         <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9235,16 +9238,16 @@
         <v>231</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>75</v>
@@ -9293,7 +9296,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9311,18 +9314,18 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9345,17 +9348,17 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -9392,17 +9395,17 @@
         <v>75</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9431,10 +9434,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>75</v>
@@ -9456,17 +9459,17 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -9515,7 +9518,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>83</v>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1372,9 +1372,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-lab-task-output</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -8700,46 +8697,46 @@
         <v>75</v>
       </c>
       <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8757,18 +8754,18 @@
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8794,13 +8791,13 @@
         <v>231</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8850,7 +8847,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8868,18 +8865,18 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8905,14 +8902,14 @@
         <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>75</v>
@@ -8941,25 +8938,25 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8977,18 +8974,18 @@
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9014,14 +9011,14 @@
         <v>231</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -9070,7 +9067,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9088,18 +9085,18 @@
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9122,19 +9119,19 @@
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>75</v>
@@ -9183,7 +9180,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9201,18 +9198,18 @@
         <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9238,16 +9235,16 @@
         <v>231</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>75</v>
@@ -9296,7 +9293,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9314,18 +9311,18 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9348,17 +9345,17 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -9395,17 +9392,17 @@
         <v>75</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9434,10 +9431,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>75</v>
@@ -9459,17 +9456,17 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -9518,7 +9515,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>83</v>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-task</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-lab-task</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1416,7 +1416,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-lab-task-output</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1862,7 +1862,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-lab-task</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-task</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1416,7 +1416,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-lab-task-output</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1862,7 +1862,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.68359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
